--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,15 +4,20 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Mann" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Filtron" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="MuxB4bzZosYH1BRDuCaBwdaQZuZJzzUDCqv9t5+kSNg="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="773">
   <si>
     <t>W 811/80</t>
   </si>
@@ -2331,1107 +2336,6 @@
   </si>
   <si>
     <t>MH 67</t>
-  </si>
-  <si>
-    <t>AP 122/8</t>
-  </si>
-  <si>
-    <t>AP 197/7</t>
-  </si>
-  <si>
-    <t>AP 135/7</t>
-  </si>
-  <si>
-    <t>AP 197/6</t>
-  </si>
-  <si>
-    <t>AK 372/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 185/1 </t>
-  </si>
-  <si>
-    <t>AP 134/10</t>
-  </si>
-  <si>
-    <t>AP 133/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 139/7 </t>
-  </si>
-  <si>
-    <t>AP 183/3</t>
-  </si>
-  <si>
-    <t>AP 122/9</t>
-  </si>
-  <si>
-    <t>AK 362/6</t>
-  </si>
-  <si>
-    <t>AP 144/2</t>
-  </si>
-  <si>
-    <t>AP 139/2</t>
-  </si>
-  <si>
-    <t>AP 160/1</t>
-  </si>
-  <si>
-    <t>AP 113/6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AK 370/4 </t>
-  </si>
-  <si>
-    <t>AP 185/5</t>
-  </si>
-  <si>
-    <t>AP 062/1</t>
-  </si>
-  <si>
-    <t>AP 004/3</t>
-  </si>
-  <si>
-    <t>AP 107/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 026/2 </t>
-  </si>
-  <si>
-    <t>AP 118/3-2X</t>
-  </si>
-  <si>
-    <t>AP 051/8</t>
-  </si>
-  <si>
-    <t>AR 131/1</t>
-  </si>
-  <si>
-    <t>AP 109/9</t>
-  </si>
-  <si>
-    <t>AP 113/3</t>
-  </si>
-  <si>
-    <t>AP 121/3</t>
-  </si>
-  <si>
-    <t>AP 197/8</t>
-  </si>
-  <si>
-    <t>AP 051</t>
-  </si>
-  <si>
-    <t>AP 197/5</t>
-  </si>
-  <si>
-    <t>AP 026/1</t>
-  </si>
-  <si>
-    <t>AP 186/1</t>
-  </si>
-  <si>
-    <t>AP 108/6</t>
-  </si>
-  <si>
-    <t>AP 129/9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 177/7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AK 362/1 </t>
-  </si>
-  <si>
-    <t>AP 139/3</t>
-  </si>
-  <si>
-    <t>AK 362/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 139/4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 142/3 </t>
-  </si>
-  <si>
-    <t>AP 120/4</t>
-  </si>
-  <si>
-    <t>AP 143/2</t>
-  </si>
-  <si>
-    <t>AP 035/7</t>
-  </si>
-  <si>
-    <t>AP 051/7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR 307/2 </t>
-  </si>
-  <si>
-    <t>AP 107/9</t>
-  </si>
-  <si>
-    <t>AP 185/6</t>
-  </si>
-  <si>
-    <t>AP 104/7</t>
-  </si>
-  <si>
-    <t>AP 129/7</t>
-  </si>
-  <si>
-    <t>AP 183</t>
-  </si>
-  <si>
-    <t>AP 143/5</t>
-  </si>
-  <si>
-    <t>8W0133843A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 154/3 </t>
-  </si>
-  <si>
-    <t>AP 071/4</t>
-  </si>
-  <si>
-    <t>AP 173/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 028/6 </t>
-  </si>
-  <si>
-    <t>AP 120/5</t>
-  </si>
-  <si>
-    <t>AP 082</t>
-  </si>
-  <si>
-    <t>AP 058/3</t>
-  </si>
-  <si>
-    <t>AP 023/5</t>
-  </si>
-  <si>
-    <t>AP 144/7</t>
-  </si>
-  <si>
-    <t>AP 151/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AK 218/9 </t>
-  </si>
-  <si>
-    <t>AP 144/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 113/1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 129/8 </t>
-  </si>
-  <si>
-    <t>AR 371/6</t>
-  </si>
-  <si>
-    <t>AP 182/9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 072/1 </t>
-  </si>
-  <si>
-    <t>AP 035/5</t>
-  </si>
-  <si>
-    <t>AP 026/4</t>
-  </si>
-  <si>
-    <t>AP 189</t>
-  </si>
-  <si>
-    <t>AP 112/1</t>
-  </si>
-  <si>
-    <t>AP 197/1</t>
-  </si>
-  <si>
-    <t>AP 030/2</t>
-  </si>
-  <si>
-    <t>AP 154</t>
-  </si>
-  <si>
-    <t>AP 082/6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 172/3 </t>
-  </si>
-  <si>
-    <t>AP 058/8</t>
-  </si>
-  <si>
-    <t>AP 109/3</t>
-  </si>
-  <si>
-    <t>AP 029/1</t>
-  </si>
-  <si>
-    <t>AP 031/2</t>
-  </si>
-  <si>
-    <t>AP 063/1</t>
-  </si>
-  <si>
-    <t>AP 197/4</t>
-  </si>
-  <si>
-    <t>AP 113/9</t>
-  </si>
-  <si>
-    <t>AP 157</t>
-  </si>
-  <si>
-    <t>AP 192</t>
-  </si>
-  <si>
-    <t>AP 004/5</t>
-  </si>
-  <si>
-    <t>AP 074/8</t>
-  </si>
-  <si>
-    <t>AP 028/5</t>
-  </si>
-  <si>
-    <t>AP 082/1</t>
-  </si>
-  <si>
-    <t>AP 178/5</t>
-  </si>
-  <si>
-    <t>AP 152/3</t>
-  </si>
-  <si>
-    <t>AP 154/1</t>
-  </si>
-  <si>
-    <t>AP 143/9</t>
-  </si>
-  <si>
-    <t>AP 149/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 166/1 </t>
-  </si>
-  <si>
-    <t>AK 362/7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 173/4 </t>
-  </si>
-  <si>
-    <t>AP 124</t>
-  </si>
-  <si>
-    <t>AP 082/5</t>
-  </si>
-  <si>
-    <t>AP 034/4-2X</t>
-  </si>
-  <si>
-    <t>AP 122/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 176/5 </t>
-  </si>
-  <si>
-    <t>AK 375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 023/3 </t>
-  </si>
-  <si>
-    <t>AP 175</t>
-  </si>
-  <si>
-    <t>AP 182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 022/2 </t>
-  </si>
-  <si>
-    <t>AR 371/7</t>
-  </si>
-  <si>
-    <t>AP 142/1</t>
-  </si>
-  <si>
-    <t>AP 173/3</t>
-  </si>
-  <si>
-    <t>AP 124/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 107/10 </t>
-  </si>
-  <si>
-    <t>AP 177/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 108/3 </t>
-  </si>
-  <si>
-    <t>AP 196/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 032/9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 030/1 </t>
-  </si>
-  <si>
-    <t>AP 120/3</t>
-  </si>
-  <si>
-    <t>AP 152/5</t>
-  </si>
-  <si>
-    <t>AP 186/2</t>
-  </si>
-  <si>
-    <t>AP 074/4</t>
-  </si>
-  <si>
-    <t>AP 003/7</t>
-  </si>
-  <si>
-    <t>AP 114</t>
-  </si>
-  <si>
-    <t>AP 074/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P 525 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1274 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 143/3 </t>
-  </si>
-  <si>
-    <t>AP 051/9</t>
-  </si>
-  <si>
-    <t>AP 032/1</t>
-  </si>
-  <si>
-    <t>AP 120/2</t>
-  </si>
-  <si>
-    <t>AP 122/5</t>
-  </si>
-  <si>
-    <t>AP 204</t>
-  </si>
-  <si>
-    <t>AP 082/4</t>
-  </si>
-  <si>
-    <t>AP 082/9</t>
-  </si>
-  <si>
-    <t>AK 370/2</t>
-  </si>
-  <si>
-    <t>AP 108/4</t>
-  </si>
-  <si>
-    <t>AP 028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 107/5 </t>
-  </si>
-  <si>
-    <t>AP 062/2</t>
-  </si>
-  <si>
-    <t>AP 028/1</t>
-  </si>
-  <si>
-    <t>K 1313</t>
-  </si>
-  <si>
-    <t>K 1329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1407 </t>
-  </si>
-  <si>
-    <t>K 1321A</t>
-  </si>
-  <si>
-    <t>K 1210A</t>
-  </si>
-  <si>
-    <t>K 1152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1111A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1314 </t>
-  </si>
-  <si>
-    <t>K 1336A-2X</t>
-  </si>
-  <si>
-    <t>K 1152A</t>
-  </si>
-  <si>
-    <t>K 1111</t>
-  </si>
-  <si>
-    <t>K 1241</t>
-  </si>
-  <si>
-    <t>K 1210</t>
-  </si>
-  <si>
-    <t>K 1311A</t>
-  </si>
-  <si>
-    <t>K 1350A</t>
-  </si>
-  <si>
-    <t>K 1311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1269A </t>
-  </si>
-  <si>
-    <t>K 1321</t>
-  </si>
-  <si>
-    <t>K 1313A</t>
-  </si>
-  <si>
-    <t>K 1223</t>
-  </si>
-  <si>
-    <t>K 1223A</t>
-  </si>
-  <si>
-    <t>K 1332</t>
-  </si>
-  <si>
-    <t>K 1232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1318A </t>
-  </si>
-  <si>
-    <t>K 1278A</t>
-  </si>
-  <si>
-    <t>K 1310</t>
-  </si>
-  <si>
-    <t>K 1155</t>
-  </si>
-  <si>
-    <t>1169A</t>
-  </si>
-  <si>
-    <t>K 1346A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1270-2X </t>
-  </si>
-  <si>
-    <t>K 1237A</t>
-  </si>
-  <si>
-    <t>K 1187A</t>
-  </si>
-  <si>
-    <t>K 1182-2X</t>
-  </si>
-  <si>
-    <t>K 1155A</t>
-  </si>
-  <si>
-    <t>K 1316</t>
-  </si>
-  <si>
-    <t>K 1340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1378 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1060 </t>
-  </si>
-  <si>
-    <t>K 1255</t>
-  </si>
-  <si>
-    <t>K 1014</t>
-  </si>
-  <si>
-    <t>K 1421</t>
-  </si>
-  <si>
-    <t>K 1245</t>
-  </si>
-  <si>
-    <t>K 1079А</t>
-  </si>
-  <si>
-    <t>K 1246A</t>
-  </si>
-  <si>
-    <t>K 1266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1230 </t>
-  </si>
-  <si>
-    <t>K 1083A</t>
-  </si>
-  <si>
-    <t>K 1315</t>
-  </si>
-  <si>
-    <t>K 1230A</t>
-  </si>
-  <si>
-    <t>K 1409A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1200A-2X </t>
-  </si>
-  <si>
-    <t>K 1331A</t>
-  </si>
-  <si>
-    <t>K 1150</t>
-  </si>
-  <si>
-    <t>K 1260A-2X</t>
-  </si>
-  <si>
-    <t>K 1405</t>
-  </si>
-  <si>
-    <t>K 1231</t>
-  </si>
-  <si>
-    <t>K 1350</t>
-  </si>
-  <si>
-    <t>K 1312-2X</t>
-  </si>
-  <si>
-    <t>K 1083</t>
-  </si>
-  <si>
-    <t>K 1172</t>
-  </si>
-  <si>
-    <t>K 1154</t>
-  </si>
-  <si>
-    <t>K 1154A</t>
-  </si>
-  <si>
-    <t>K 1240A</t>
-  </si>
-  <si>
-    <t>K 1166</t>
-  </si>
-  <si>
-    <t>K 1355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1251 </t>
-  </si>
-  <si>
-    <t>K 1093</t>
-  </si>
-  <si>
-    <t>K 1236</t>
-  </si>
-  <si>
-    <t>K 1178</t>
-  </si>
-  <si>
-    <t>K 1270A-2X</t>
-  </si>
-  <si>
-    <t>K 1110</t>
-  </si>
-  <si>
-    <t>K 1342A-2x</t>
-  </si>
-  <si>
-    <t>K 1047A</t>
-  </si>
-  <si>
-    <t>K 1161</t>
-  </si>
-  <si>
-    <t>K 1288</t>
-  </si>
-  <si>
-    <t>K 1187</t>
-  </si>
-  <si>
-    <t>K 1338</t>
-  </si>
-  <si>
-    <t>K 1381</t>
-  </si>
-  <si>
-    <t>K 1378A</t>
-  </si>
-  <si>
-    <t>K 1263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1198-2X </t>
-  </si>
-  <si>
-    <t>K 1169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1382 </t>
-  </si>
-  <si>
-    <t>K 1006</t>
-  </si>
-  <si>
-    <t>K 1217</t>
-  </si>
-  <si>
-    <t>K 1212-2X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1161A </t>
-  </si>
-  <si>
-    <t>K 1388</t>
-  </si>
-  <si>
-    <t>K 1339-2x</t>
-  </si>
-  <si>
-    <t>AP 196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1287 </t>
-  </si>
-  <si>
-    <t>K 1331</t>
-  </si>
-  <si>
-    <t>K 1278</t>
-  </si>
-  <si>
-    <t>K 1150A</t>
-  </si>
-  <si>
-    <t>K 1017</t>
-  </si>
-  <si>
-    <t>K 1183</t>
-  </si>
-  <si>
-    <t>K 1275A</t>
-  </si>
-  <si>
-    <t>OP 643/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP 564/1 </t>
-  </si>
-  <si>
-    <t>OP 617</t>
-  </si>
-  <si>
-    <t>OP 641</t>
-  </si>
-  <si>
-    <t>OP 564</t>
-  </si>
-  <si>
-    <t>OP 572</t>
-  </si>
-  <si>
-    <t>OP 641/2</t>
-  </si>
-  <si>
-    <t>OP 616/3</t>
-  </si>
-  <si>
-    <t>OP 587</t>
-  </si>
-  <si>
-    <t>OP 595/2</t>
-  </si>
-  <si>
-    <t>OP 595</t>
-  </si>
-  <si>
-    <t>OP 621</t>
-  </si>
-  <si>
-    <t>OP 575</t>
-  </si>
-  <si>
-    <t>OP 643/6</t>
-  </si>
-  <si>
-    <t>OP 592/8</t>
-  </si>
-  <si>
-    <t>OP 526/7</t>
-  </si>
-  <si>
-    <t>OP 570/1</t>
-  </si>
-  <si>
-    <t>OE 666/3</t>
-  </si>
-  <si>
-    <t>OE 685/6</t>
-  </si>
-  <si>
-    <t>OE 648/6</t>
-  </si>
-  <si>
-    <t>1619270580</t>
-  </si>
-  <si>
-    <t>OE 695</t>
-  </si>
-  <si>
-    <t>OP 526/1</t>
-  </si>
-  <si>
-    <t>OE 678/1</t>
-  </si>
-  <si>
-    <t>OP 526/1T(12)</t>
-  </si>
-  <si>
-    <t>OE 674/6</t>
-  </si>
-  <si>
-    <t>OP 526</t>
-  </si>
-  <si>
-    <t>OP 629/2</t>
-  </si>
-  <si>
-    <t>OP 629</t>
-  </si>
-  <si>
-    <t>OE 649/9</t>
-  </si>
-  <si>
-    <t>OP 595/1</t>
-  </si>
-  <si>
-    <t>OE 649/10</t>
-  </si>
-  <si>
-    <t>OP 643/4</t>
-  </si>
-  <si>
-    <t>OP 632/7</t>
-  </si>
-  <si>
-    <t>OP 570</t>
-  </si>
-  <si>
-    <t>OE 685/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP 563 </t>
-  </si>
-  <si>
-    <t>OP5322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP 526/6 </t>
-  </si>
-  <si>
-    <t>OE 682/4</t>
-  </si>
-  <si>
-    <t>OE 688/3</t>
-  </si>
-  <si>
-    <t>OE 649/6</t>
-  </si>
-  <si>
-    <t>OE 640/10</t>
-  </si>
-  <si>
-    <t>OE 674/7</t>
-  </si>
-  <si>
-    <t>OE 640/2</t>
-  </si>
-  <si>
-    <t>OE 650/1</t>
-  </si>
-  <si>
-    <t>OE 685/2</t>
-  </si>
-  <si>
-    <t>OE 672/4</t>
-  </si>
-  <si>
-    <t>OE 672/3</t>
-  </si>
-  <si>
-    <t>OP 570T</t>
-  </si>
-  <si>
-    <t>OE 674/5</t>
-  </si>
-  <si>
-    <t>OE 650/6</t>
-  </si>
-  <si>
-    <t>OE 649/8</t>
-  </si>
-  <si>
-    <t>OE 671</t>
-  </si>
-  <si>
-    <t>OP 592/2</t>
-  </si>
-  <si>
-    <t>OE 673</t>
-  </si>
-  <si>
-    <t>OE 688/2</t>
-  </si>
-  <si>
-    <t>OE 640/5</t>
-  </si>
-  <si>
-    <t>OE 640/3</t>
-  </si>
-  <si>
-    <t>OP 545/2</t>
-  </si>
-  <si>
-    <t>OP 618</t>
-  </si>
-  <si>
-    <t>OP 617/1</t>
-  </si>
-  <si>
-    <t>OE 672/6</t>
-  </si>
-  <si>
-    <t>OE 650/5</t>
-  </si>
-  <si>
-    <t>OP 629/1</t>
-  </si>
-  <si>
-    <t>OE 671/4</t>
-  </si>
-  <si>
-    <t>OM 614</t>
-  </si>
-  <si>
-    <t>OE 662/1</t>
-  </si>
-  <si>
-    <t>OE 688</t>
-  </si>
-  <si>
-    <t>OP 532/1</t>
-  </si>
-  <si>
-    <t>OE 650/7</t>
-  </si>
-  <si>
-    <t>OP 570/2</t>
-  </si>
-  <si>
-    <t>OE 672/2</t>
-  </si>
-  <si>
-    <t>OE 685/3</t>
-  </si>
-  <si>
-    <t>OE 650/2</t>
-  </si>
-  <si>
-    <t>OE 650/3</t>
-  </si>
-  <si>
-    <t>OE 640</t>
-  </si>
-  <si>
-    <t>OE 670</t>
-  </si>
-  <si>
-    <t>OE 649</t>
-  </si>
-  <si>
-    <t>OE 665/2</t>
-  </si>
-  <si>
-    <t>PP 971</t>
-  </si>
-  <si>
-    <t>PP 905/2</t>
-  </si>
-  <si>
-    <t>PP 836/4</t>
-  </si>
-  <si>
-    <t>PP 979/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP 968/2 </t>
-  </si>
-  <si>
-    <t>PP 979/4</t>
-  </si>
-  <si>
-    <t>PP 905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP 976/3 </t>
-  </si>
-  <si>
-    <t>PE 982</t>
-  </si>
-  <si>
-    <t>PP 976/2</t>
-  </si>
-  <si>
-    <t>PP 836/2</t>
-  </si>
-  <si>
-    <t>PS 842</t>
-  </si>
-  <si>
-    <t>PP 976/4</t>
-  </si>
-  <si>
-    <t>PS 822</t>
-  </si>
-  <si>
-    <t>PP 837</t>
-  </si>
-  <si>
-    <t>PP 840/1</t>
-  </si>
-  <si>
-    <t>AM 413</t>
-  </si>
-  <si>
-    <t>OP 520/1</t>
-  </si>
-  <si>
-    <t>OP 520T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP 520/1T </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP 520 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP 006 </t>
-  </si>
-  <si>
-    <t>K 1229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP 851 </t>
-  </si>
-  <si>
-    <t>AR 214</t>
-  </si>
-  <si>
-    <t>PP 967</t>
-  </si>
-  <si>
-    <t>PP 967/1</t>
-  </si>
-  <si>
-    <t>PE 975/2</t>
-  </si>
-  <si>
-    <t>PP 964/1</t>
-  </si>
-  <si>
-    <t>PE 935</t>
-  </si>
-  <si>
-    <t>PP 967/7</t>
-  </si>
-  <si>
-    <t>PP 845</t>
-  </si>
-  <si>
-    <t>OE 676/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP 584 </t>
-  </si>
-  <si>
-    <t>OE 651/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OE 646/2 </t>
-  </si>
-  <si>
-    <t>OP 626/6</t>
-  </si>
-  <si>
-    <t>AM 471</t>
-  </si>
-  <si>
-    <t>AM 442/9</t>
-  </si>
-  <si>
-    <t>AM 477/1</t>
-  </si>
-  <si>
-    <t>AD 785/1</t>
-  </si>
-  <si>
-    <t>K 1294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1091 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K 1142 </t>
-  </si>
-  <si>
-    <t>AR 200/4</t>
-  </si>
-  <si>
-    <t>PE 995</t>
-  </si>
-  <si>
-    <t>OP 647</t>
   </si>
 </sst>
 </file>
@@ -3440,14 +2344,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="2">
     <font>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3529,14 +2433,14 @@
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3683,12 +2587,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="16.83" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="26" width="8.71"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -3790,3782 +2697,4010 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" ht="15.75" customHeight="1">
       <c r="A377" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" ht="15.75" customHeight="1">
       <c r="A378" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" ht="15.75" customHeight="1">
       <c r="A384" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" ht="15.75" customHeight="1">
       <c r="A387" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" ht="15.75" customHeight="1">
       <c r="A388" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" ht="15.75" customHeight="1">
       <c r="A391" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" ht="15.75" customHeight="1">
       <c r="A392" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" ht="15.75" customHeight="1">
       <c r="A393" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" ht="15.75" customHeight="1">
       <c r="A394" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" ht="15.75" customHeight="1">
       <c r="A403" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" ht="15.75" customHeight="1">
       <c r="A408" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" ht="15.75" customHeight="1">
       <c r="A413" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" ht="15.75" customHeight="1">
       <c r="A414" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" ht="15.75" customHeight="1">
       <c r="A415" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" ht="15.75" customHeight="1">
       <c r="A417" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" ht="15.75" customHeight="1">
       <c r="A418" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" ht="15.75" customHeight="1">
       <c r="A419" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" ht="15.75" customHeight="1">
       <c r="A420" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" ht="15.75" customHeight="1">
       <c r="A421" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" ht="15.75" customHeight="1">
       <c r="A422" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" ht="15.75" customHeight="1">
       <c r="A423" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" ht="15.75" customHeight="1">
       <c r="A424" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" ht="15.75" customHeight="1">
       <c r="A425" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" ht="15.75" customHeight="1">
       <c r="A426" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" ht="15.75" customHeight="1">
       <c r="A427" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" ht="15.75" customHeight="1">
       <c r="A428" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" ht="15.75" customHeight="1">
       <c r="A430" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" ht="15.75" customHeight="1">
       <c r="A431" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" ht="15.75" customHeight="1">
       <c r="A432" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" ht="15.75" customHeight="1">
       <c r="A433" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" ht="15.75" customHeight="1">
       <c r="A434" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" ht="15.75" customHeight="1">
       <c r="A435" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" ht="15.75" customHeight="1">
       <c r="A437" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" ht="15.75" customHeight="1">
       <c r="A440" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" ht="15.75" customHeight="1">
       <c r="A441" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" ht="15.75" customHeight="1">
       <c r="A442" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" ht="15.75" customHeight="1">
       <c r="A443" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" ht="15.75" customHeight="1">
       <c r="A444" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" ht="15.75" customHeight="1">
       <c r="A445" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" ht="15.75" customHeight="1">
       <c r="A446" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" ht="15.75" customHeight="1">
       <c r="A447" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" ht="15.75" customHeight="1">
       <c r="A448" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" ht="15.75" customHeight="1">
       <c r="A449" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" ht="15.75" customHeight="1">
       <c r="A450" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" ht="15.75" customHeight="1">
       <c r="A451" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" ht="15.75" customHeight="1">
       <c r="A452" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" ht="15.75" customHeight="1">
       <c r="A453" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" ht="15.75" customHeight="1">
       <c r="A454" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" ht="15.75" customHeight="1">
       <c r="A455" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" ht="15.75" customHeight="1">
       <c r="A456" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" ht="15.75" customHeight="1">
       <c r="A457" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" ht="15.75" customHeight="1">
       <c r="A459" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" ht="15.75" customHeight="1">
       <c r="A460" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" ht="15.75" customHeight="1">
       <c r="A461" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" ht="15.75" customHeight="1">
       <c r="A462" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" ht="15.75" customHeight="1">
       <c r="A463" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" ht="15.75" customHeight="1">
       <c r="A464" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" ht="15.75" customHeight="1">
       <c r="A465" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" ht="15.75" customHeight="1">
       <c r="A466" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" ht="15.75" customHeight="1">
       <c r="A467" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" ht="15.75" customHeight="1">
       <c r="A468" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" ht="15.75" customHeight="1">
       <c r="A470" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" ht="15.75" customHeight="1">
       <c r="A471" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" ht="15.75" customHeight="1">
       <c r="A472" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" ht="15.75" customHeight="1">
       <c r="A473" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" ht="15.75" customHeight="1">
       <c r="A474" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" ht="15.75" customHeight="1">
       <c r="A475" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" ht="15.75" customHeight="1">
       <c r="A476" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" ht="15.75" customHeight="1">
       <c r="A477" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" ht="15.75" customHeight="1">
       <c r="A478" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" ht="15.75" customHeight="1">
       <c r="A480" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" ht="15.75" customHeight="1">
       <c r="A481" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" ht="15.75" customHeight="1">
       <c r="A482" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" ht="15.75" customHeight="1">
       <c r="A483" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" ht="15.75" customHeight="1">
       <c r="A484" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" ht="15.75" customHeight="1">
       <c r="A487" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" ht="15.75" customHeight="1">
       <c r="A488" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" ht="15.75" customHeight="1">
       <c r="A489" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" ht="15.75" customHeight="1">
       <c r="A492" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" ht="15.75" customHeight="1">
       <c r="A493" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" ht="15.75" customHeight="1">
       <c r="A494" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" ht="15.75" customHeight="1">
       <c r="A495" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" ht="15.75" customHeight="1">
       <c r="A498" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" ht="15.75" customHeight="1">
       <c r="A501" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" ht="15.75" customHeight="1">
       <c r="A503" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" ht="15.75" customHeight="1">
       <c r="A504" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" ht="15.75" customHeight="1">
       <c r="A507" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" ht="15.75" customHeight="1">
       <c r="A518" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" ht="15.75" customHeight="1">
       <c r="A521" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" ht="15.75" customHeight="1">
       <c r="A522" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" ht="15.75" customHeight="1">
       <c r="A523" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" ht="15.75" customHeight="1">
       <c r="A524" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" ht="15.75" customHeight="1">
       <c r="A525" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" ht="15.75" customHeight="1">
       <c r="A526" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" ht="15.75" customHeight="1">
       <c r="A527" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" ht="15.75" customHeight="1">
       <c r="A528" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" ht="15.75" customHeight="1">
       <c r="A529" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" ht="15.75" customHeight="1">
       <c r="A530" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" ht="15.75" customHeight="1">
       <c r="A531" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" ht="15.75" customHeight="1">
       <c r="A532" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" ht="15.75" customHeight="1">
       <c r="A533" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" ht="15.75" customHeight="1">
       <c r="A534" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" ht="15.75" customHeight="1">
       <c r="A535" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" ht="15.75" customHeight="1">
       <c r="A536" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" ht="15.75" customHeight="1">
       <c r="A537" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="540">
+    <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="541">
+    <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="542">
+    <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="544">
+    <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="545">
+    <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="546">
+    <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="547">
+    <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="548">
+    <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="549">
+    <row r="549" ht="15.75" customHeight="1">
       <c r="A549" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" ht="15.75" customHeight="1">
       <c r="A550" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="551">
+    <row r="551" ht="15.75" customHeight="1">
       <c r="A551" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="552">
+    <row r="552" ht="15.75" customHeight="1">
       <c r="A552" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="553">
+    <row r="553" ht="15.75" customHeight="1">
       <c r="A553" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="554">
+    <row r="554" ht="15.75" customHeight="1">
       <c r="A554" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="555">
+    <row r="555" ht="15.75" customHeight="1">
       <c r="A555" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="556">
+    <row r="556" ht="15.75" customHeight="1">
       <c r="A556" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="557">
+    <row r="557" ht="15.75" customHeight="1">
       <c r="A557" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="558">
+    <row r="558" ht="15.75" customHeight="1">
       <c r="A558" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="559">
+    <row r="559" ht="15.75" customHeight="1">
       <c r="A559" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="560">
+    <row r="560" ht="15.75" customHeight="1">
       <c r="A560" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="561">
+    <row r="561" ht="15.75" customHeight="1">
       <c r="A561" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="562">
+    <row r="562" ht="15.75" customHeight="1">
       <c r="A562" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="563">
+    <row r="563" ht="15.75" customHeight="1">
       <c r="A563" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="564">
+    <row r="564" ht="15.75" customHeight="1">
       <c r="A564" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="565">
+    <row r="565" ht="15.75" customHeight="1">
       <c r="A565" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="566">
+    <row r="566" ht="15.75" customHeight="1">
       <c r="A566" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="567">
+    <row r="567" ht="15.75" customHeight="1">
       <c r="A567" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="568">
+    <row r="568" ht="15.75" customHeight="1">
       <c r="A568" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="569">
+    <row r="569" ht="15.75" customHeight="1">
       <c r="A569" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="570">
+    <row r="570" ht="15.75" customHeight="1">
       <c r="A570" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="571">
+    <row r="571" ht="15.75" customHeight="1">
       <c r="A571" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="572">
+    <row r="572" ht="15.75" customHeight="1">
       <c r="A572" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="573">
+    <row r="573" ht="15.75" customHeight="1">
       <c r="A573" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="574">
+    <row r="574" ht="15.75" customHeight="1">
       <c r="A574" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="575">
+    <row r="575" ht="15.75" customHeight="1">
       <c r="A575" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="576">
+    <row r="576" ht="15.75" customHeight="1">
       <c r="A576" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="577">
+    <row r="577" ht="15.75" customHeight="1">
       <c r="A577" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="578">
+    <row r="578" ht="15.75" customHeight="1">
       <c r="A578" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="579">
+    <row r="579" ht="15.75" customHeight="1">
       <c r="A579" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="580">
+    <row r="580" ht="15.75" customHeight="1">
       <c r="A580" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="581">
+    <row r="581" ht="15.75" customHeight="1">
       <c r="A581" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="582">
+    <row r="582" ht="15.75" customHeight="1">
       <c r="A582" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="583">
+    <row r="583" ht="15.75" customHeight="1">
       <c r="A583" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="584">
+    <row r="584" ht="15.75" customHeight="1">
       <c r="A584" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="585">
+    <row r="585" ht="15.75" customHeight="1">
       <c r="A585" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="586">
+    <row r="586" ht="15.75" customHeight="1">
       <c r="A586" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="587">
+    <row r="587" ht="15.75" customHeight="1">
       <c r="A587" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="588">
+    <row r="588" ht="15.75" customHeight="1">
       <c r="A588" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="589">
+    <row r="589" ht="15.75" customHeight="1">
       <c r="A589" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="590">
+    <row r="590" ht="15.75" customHeight="1">
       <c r="A590" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="591">
+    <row r="591" ht="15.75" customHeight="1">
       <c r="A591" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="592">
+    <row r="592" ht="15.75" customHeight="1">
       <c r="A592" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="593">
+    <row r="593" ht="15.75" customHeight="1">
       <c r="A593" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="594">
+    <row r="594" ht="15.75" customHeight="1">
       <c r="A594" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="595">
+    <row r="595" ht="15.75" customHeight="1">
       <c r="A595" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="596">
+    <row r="596" ht="15.75" customHeight="1">
       <c r="A596" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="597">
+    <row r="597" ht="15.75" customHeight="1">
       <c r="A597" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="598">
+    <row r="598" ht="15.75" customHeight="1">
       <c r="A598" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="599">
+    <row r="599" ht="15.75" customHeight="1">
       <c r="A599" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="600">
+    <row r="600" ht="15.75" customHeight="1">
       <c r="A600" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="601">
+    <row r="601" ht="15.75" customHeight="1">
       <c r="A601" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="602">
+    <row r="602" ht="15.75" customHeight="1">
       <c r="A602" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="603">
+    <row r="603" ht="15.75" customHeight="1">
       <c r="A603" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="604">
+    <row r="604" ht="15.75" customHeight="1">
       <c r="A604" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="605">
+    <row r="605" ht="15.75" customHeight="1">
       <c r="A605" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="606">
+    <row r="606" ht="15.75" customHeight="1">
       <c r="A606" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="607">
+    <row r="607" ht="15.75" customHeight="1">
       <c r="A607" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="608">
+    <row r="608" ht="15.75" customHeight="1">
       <c r="A608" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="609">
+    <row r="609" ht="15.75" customHeight="1">
       <c r="A609" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="610">
+    <row r="610" ht="15.75" customHeight="1">
       <c r="A610" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="611">
+    <row r="611" ht="15.75" customHeight="1">
       <c r="A611" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="612">
+    <row r="612" ht="15.75" customHeight="1">
       <c r="A612" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="613">
+    <row r="613" ht="15.75" customHeight="1">
       <c r="A613" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="614">
+    <row r="614" ht="15.75" customHeight="1">
       <c r="A614" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="615">
+    <row r="615" ht="15.75" customHeight="1">
       <c r="A615" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="616">
+    <row r="616" ht="15.75" customHeight="1">
       <c r="A616" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="617">
+    <row r="617" ht="15.75" customHeight="1">
       <c r="A617" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="618">
+    <row r="618" ht="15.75" customHeight="1">
       <c r="A618" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="619">
+    <row r="619" ht="15.75" customHeight="1">
       <c r="A619" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="620">
+    <row r="620" ht="15.75" customHeight="1">
       <c r="A620" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="621">
+    <row r="621" ht="15.75" customHeight="1">
       <c r="A621" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="622">
+    <row r="622" ht="15.75" customHeight="1">
       <c r="A622" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="623">
+    <row r="623" ht="15.75" customHeight="1">
       <c r="A623" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="624">
+    <row r="624" ht="15.75" customHeight="1">
       <c r="A624" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="625">
+    <row r="625" ht="15.75" customHeight="1">
       <c r="A625" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="626">
+    <row r="626" ht="15.75" customHeight="1">
       <c r="A626" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="627">
+    <row r="627" ht="15.75" customHeight="1">
       <c r="A627" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="628">
+    <row r="628" ht="15.75" customHeight="1">
       <c r="A628" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="629">
+    <row r="629" ht="15.75" customHeight="1">
       <c r="A629" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="630">
+    <row r="630" ht="15.75" customHeight="1">
       <c r="A630" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="631">
+    <row r="631" ht="15.75" customHeight="1">
       <c r="A631" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="632">
+    <row r="632" ht="15.75" customHeight="1">
       <c r="A632" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="633">
+    <row r="633" ht="15.75" customHeight="1">
       <c r="A633" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="634">
+    <row r="634" ht="15.75" customHeight="1">
       <c r="A634" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="635">
+    <row r="635" ht="15.75" customHeight="1">
       <c r="A635" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="636">
+    <row r="636" ht="15.75" customHeight="1">
       <c r="A636" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="637">
+    <row r="637" ht="15.75" customHeight="1">
       <c r="A637" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="638">
+    <row r="638" ht="15.75" customHeight="1">
       <c r="A638" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="639">
+    <row r="639" ht="15.75" customHeight="1">
       <c r="A639" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="640">
+    <row r="640" ht="15.75" customHeight="1">
       <c r="A640" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="641">
+    <row r="641" ht="15.75" customHeight="1">
       <c r="A641" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="642">
+    <row r="642" ht="15.75" customHeight="1">
       <c r="A642" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="643">
+    <row r="643" ht="15.75" customHeight="1">
       <c r="A643" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="644">
+    <row r="644" ht="15.75" customHeight="1">
       <c r="A644" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="645">
+    <row r="645" ht="15.75" customHeight="1">
       <c r="A645" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="646">
+    <row r="646" ht="15.75" customHeight="1">
       <c r="A646" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="647">
+    <row r="647" ht="15.75" customHeight="1">
       <c r="A647" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="648">
+    <row r="648" ht="15.75" customHeight="1">
       <c r="A648" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="649">
+    <row r="649" ht="15.75" customHeight="1">
       <c r="A649" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="650">
+    <row r="650" ht="15.75" customHeight="1">
       <c r="A650" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="651">
+    <row r="651" ht="15.75" customHeight="1">
       <c r="A651" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="652">
+    <row r="652" ht="15.75" customHeight="1">
       <c r="A652" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="653">
+    <row r="653" ht="15.75" customHeight="1">
       <c r="A653" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="654">
+    <row r="654" ht="15.75" customHeight="1">
       <c r="A654" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="655">
+    <row r="655" ht="15.75" customHeight="1">
       <c r="A655" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="656">
+    <row r="656" ht="15.75" customHeight="1">
       <c r="A656" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="657">
+    <row r="657" ht="15.75" customHeight="1">
       <c r="A657" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="658">
+    <row r="658" ht="15.75" customHeight="1">
       <c r="A658" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="659">
+    <row r="659" ht="15.75" customHeight="1">
       <c r="A659" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="660">
+    <row r="660" ht="15.75" customHeight="1">
       <c r="A660" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="661">
+    <row r="661" ht="15.75" customHeight="1">
       <c r="A661" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="662">
+    <row r="662" ht="15.75" customHeight="1">
       <c r="A662" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="663">
+    <row r="663" ht="15.75" customHeight="1">
       <c r="A663" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="664">
+    <row r="664" ht="15.75" customHeight="1">
       <c r="A664" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="665">
+    <row r="665" ht="15.75" customHeight="1">
       <c r="A665" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="666">
+    <row r="666" ht="15.75" customHeight="1">
       <c r="A666" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="667">
+    <row r="667" ht="15.75" customHeight="1">
       <c r="A667" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="668">
+    <row r="668" ht="15.75" customHeight="1">
       <c r="A668" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="669">
+    <row r="669" ht="15.75" customHeight="1">
       <c r="A669" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="670">
+    <row r="670" ht="15.75" customHeight="1">
       <c r="A670" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="671">
+    <row r="671" ht="15.75" customHeight="1">
       <c r="A671" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="672">
+    <row r="672" ht="15.75" customHeight="1">
       <c r="A672" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="673">
+    <row r="673" ht="15.75" customHeight="1">
       <c r="A673" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="674">
+    <row r="674" ht="15.75" customHeight="1">
       <c r="A674" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="675">
+    <row r="675" ht="15.75" customHeight="1">
       <c r="A675" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="676">
+    <row r="676" ht="15.75" customHeight="1">
       <c r="A676" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="677">
+    <row r="677" ht="15.75" customHeight="1">
       <c r="A677" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="678">
+    <row r="678" ht="15.75" customHeight="1">
       <c r="A678" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="679">
+    <row r="679" ht="15.75" customHeight="1">
       <c r="A679" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="680">
+    <row r="680" ht="15.75" customHeight="1">
       <c r="A680" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="681">
+    <row r="681" ht="15.75" customHeight="1">
       <c r="A681" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="682">
+    <row r="682" ht="15.75" customHeight="1">
       <c r="A682" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="683">
+    <row r="683" ht="15.75" customHeight="1">
       <c r="A683" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="684">
+    <row r="684" ht="15.75" customHeight="1">
       <c r="A684" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="685">
+    <row r="685" ht="15.75" customHeight="1">
       <c r="A685" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="686">
+    <row r="686" ht="15.75" customHeight="1">
       <c r="A686" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="687">
+    <row r="687" ht="15.75" customHeight="1">
       <c r="A687" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="688">
+    <row r="688" ht="15.75" customHeight="1">
       <c r="A688" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="689">
+    <row r="689" ht="15.75" customHeight="1">
       <c r="A689" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="690">
+    <row r="690" ht="15.75" customHeight="1">
       <c r="A690" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="691">
+    <row r="691" ht="15.75" customHeight="1">
       <c r="A691" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="692">
+    <row r="692" ht="15.75" customHeight="1">
       <c r="A692" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="693">
+    <row r="693" ht="15.75" customHeight="1">
       <c r="A693" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="694">
+    <row r="694" ht="15.75" customHeight="1">
       <c r="A694" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="695">
+    <row r="695" ht="15.75" customHeight="1">
       <c r="A695" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="696">
+    <row r="696" ht="15.75" customHeight="1">
       <c r="A696" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="697">
+    <row r="697" ht="15.75" customHeight="1">
       <c r="A697" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="698">
+    <row r="698" ht="15.75" customHeight="1">
       <c r="A698" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="699">
+    <row r="699" ht="15.75" customHeight="1">
       <c r="A699" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="700">
+    <row r="700" ht="15.75" customHeight="1">
       <c r="A700" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="701">
+    <row r="701" ht="15.75" customHeight="1">
       <c r="A701" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="702">
+    <row r="702" ht="15.75" customHeight="1">
       <c r="A702" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="703">
+    <row r="703" ht="15.75" customHeight="1">
       <c r="A703" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="704">
+    <row r="704" ht="15.75" customHeight="1">
       <c r="A704" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="705">
+    <row r="705" ht="15.75" customHeight="1">
       <c r="A705" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="706">
+    <row r="706" ht="15.75" customHeight="1">
       <c r="A706" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="707">
+    <row r="707" ht="15.75" customHeight="1">
       <c r="A707" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="708">
+    <row r="708" ht="15.75" customHeight="1">
       <c r="A708" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="709">
+    <row r="709" ht="15.75" customHeight="1">
       <c r="A709" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="710">
+    <row r="710" ht="15.75" customHeight="1">
       <c r="A710" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="711">
+    <row r="711" ht="15.75" customHeight="1">
       <c r="A711" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="712">
+    <row r="712" ht="15.75" customHeight="1">
       <c r="A712" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="713">
+    <row r="713" ht="15.75" customHeight="1">
       <c r="A713" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="714">
+    <row r="714" ht="15.75" customHeight="1">
       <c r="A714" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="715">
+    <row r="715" ht="15.75" customHeight="1">
       <c r="A715" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="716">
+    <row r="716" ht="15.75" customHeight="1">
       <c r="A716" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="717">
+    <row r="717" ht="15.75" customHeight="1">
       <c r="A717" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="718">
+    <row r="718" ht="15.75" customHeight="1">
       <c r="A718" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="719">
+    <row r="719" ht="15.75" customHeight="1">
       <c r="A719" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="720">
+    <row r="720" ht="15.75" customHeight="1">
       <c r="A720" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="721">
+    <row r="721" ht="15.75" customHeight="1">
       <c r="A721" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="722">
+    <row r="722" ht="15.75" customHeight="1">
       <c r="A722" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="723">
+    <row r="723" ht="15.75" customHeight="1">
       <c r="A723" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="724">
+    <row r="724" ht="15.75" customHeight="1">
       <c r="A724" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="725">
+    <row r="725" ht="15.75" customHeight="1">
       <c r="A725" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="726">
+    <row r="726" ht="15.75" customHeight="1">
       <c r="A726" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="727">
+    <row r="727" ht="15.75" customHeight="1">
       <c r="A727" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="728">
+    <row r="728" ht="15.75" customHeight="1">
       <c r="A728" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="729">
+    <row r="729" ht="15.75" customHeight="1">
       <c r="A729" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="730">
+    <row r="730" ht="15.75" customHeight="1">
       <c r="A730" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="731">
+    <row r="731" ht="15.75" customHeight="1">
       <c r="A731" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="732">
+    <row r="732" ht="15.75" customHeight="1">
       <c r="A732" s="1" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="733">
+    <row r="733" ht="15.75" customHeight="1">
       <c r="A733" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="734">
+    <row r="734" ht="15.75" customHeight="1">
       <c r="A734" s="1" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="735">
+    <row r="735" ht="15.75" customHeight="1">
       <c r="A735" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="736">
+    <row r="736" ht="15.75" customHeight="1">
       <c r="A736" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="737">
+    <row r="737" ht="15.75" customHeight="1">
       <c r="A737" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="738">
+    <row r="738" ht="15.75" customHeight="1">
       <c r="A738" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="739">
+    <row r="739" ht="15.75" customHeight="1">
       <c r="A739" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="740">
+    <row r="740" ht="15.75" customHeight="1">
       <c r="A740" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="741">
+    <row r="741" ht="15.75" customHeight="1">
       <c r="A741" s="1" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="742">
+    <row r="742" ht="15.75" customHeight="1">
       <c r="A742" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="743">
+    <row r="743" ht="15.75" customHeight="1">
       <c r="A743" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="744">
+    <row r="744" ht="15.75" customHeight="1">
       <c r="A744" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="745">
+    <row r="745" ht="15.75" customHeight="1">
       <c r="A745" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="746">
+    <row r="746" ht="15.75" customHeight="1">
       <c r="A746" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="747">
+    <row r="747" ht="15.75" customHeight="1">
       <c r="A747" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="748">
+    <row r="748" ht="15.75" customHeight="1">
       <c r="A748" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="749">
+    <row r="749" ht="15.75" customHeight="1">
       <c r="A749" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="750">
+    <row r="750" ht="15.75" customHeight="1">
       <c r="A750" s="1" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="751">
+    <row r="751" ht="15.75" customHeight="1">
       <c r="A751" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="752">
+    <row r="752" ht="15.75" customHeight="1">
       <c r="A752" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="753">
+    <row r="753" ht="15.75" customHeight="1">
       <c r="A753" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="754">
+    <row r="754" ht="15.75" customHeight="1">
       <c r="A754" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="755">
+    <row r="755" ht="15.75" customHeight="1">
       <c r="A755" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="756">
+    <row r="756" ht="15.75" customHeight="1">
       <c r="A756" s="1" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="757">
+    <row r="757" ht="15.75" customHeight="1">
       <c r="A757" s="1" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="758">
+    <row r="758" ht="15.75" customHeight="1">
       <c r="A758" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="759">
+    <row r="759" ht="15.75" customHeight="1">
       <c r="A759" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="760">
+    <row r="760" ht="15.75" customHeight="1">
       <c r="A760" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="761">
+    <row r="761" ht="15.75" customHeight="1">
       <c r="A761" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="762">
+    <row r="762" ht="15.75" customHeight="1">
       <c r="A762" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="763">
+    <row r="763" ht="15.75" customHeight="1">
       <c r="A763" s="1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="764">
+    <row r="764" ht="15.75" customHeight="1">
       <c r="A764" s="1" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="765">
+    <row r="765" ht="15.75" customHeight="1">
       <c r="A765" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="766">
+    <row r="766" ht="15.75" customHeight="1">
       <c r="A766" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="767">
+    <row r="767" ht="15.75" customHeight="1">
       <c r="A767" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="768">
+    <row r="768" ht="15.75" customHeight="1">
       <c r="A768" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="769">
+    <row r="769" ht="15.75" customHeight="1">
       <c r="A769" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="770">
+    <row r="770" ht="15.75" customHeight="1">
       <c r="A770" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="771">
+    <row r="771" ht="15.75" customHeight="1">
       <c r="A771" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="772">
+    <row r="772" ht="15.75" customHeight="1">
       <c r="A772" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="773">
+    <row r="773" ht="15.75" customHeight="1">
       <c r="A773" s="1" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="774">
+    <row r="774" ht="15.75" customHeight="1">
       <c r="A774" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="775">
+    <row r="775" ht="15.75" customHeight="1">
       <c r="A775" s="1" t="s">
         <v>772</v>
       </c>
     </row>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7573,1849 +6708,1000 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="16.83" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="26" width="8.71"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="s">
-        <v>1139</v>
-      </c>
-    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>